--- a/index_src/report.xlsx
+++ b/index_src/report.xlsx
@@ -677,43 +677,43 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5520813686884266</v>
+        <v>0.552</v>
       </c>
       <c r="AH4">
-        <v>0.6883676967905166</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.6567919391088819</v>
+        <v>0.657</v>
       </c>
       <c r="AJ4">
-        <v>0.6341925572072823</v>
+        <v>0.634</v>
       </c>
       <c r="AK4">
-        <v>0.672346952168615</v>
+        <v>0.672</v>
       </c>
       <c r="AL4">
-        <v>0.6750989525865823</v>
+        <v>0.675</v>
       </c>
       <c r="AM4">
-        <v>0.6434239972698202</v>
+        <v>0.643</v>
       </c>
       <c r="AN4">
-        <v>0.6977730914692323</v>
+        <v>0.698</v>
       </c>
       <c r="AO4">
-        <v>0.6643960341315255</v>
+        <v>0.664</v>
       </c>
       <c r="AP4">
-        <v>0.6609387122873124</v>
+        <v>0.661</v>
       </c>
       <c r="AQ4">
-        <v>0.6623543522802026</v>
+        <v>0.662</v>
       </c>
       <c r="AR4">
-        <v>0.6705006502971895</v>
+        <v>0.671</v>
       </c>
       <c r="AS4">
-        <v>0.647046338326729</v>
+        <v>0.647</v>
       </c>
     </row>
   </sheetData>
